--- a/Documentacao/Sprint 3/Backlog/HFSystem_Backlog.xlsx
+++ b/Documentacao/Sprint 3/Backlog/HFSystem_Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana Barrocal\OneDrive - SPTech School\Trabalhos SPTECH\PI\HFSystem\Documentacao\Sprint 3\Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e27a146a09249998/Área de Trabalho/HFSystem/Documentacao/Sprint 3/Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FFC235-E1C4-45F7-A0A4-95823DF0D79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{81EE869E-8AC5-4976-9CDC-784C0E5D2F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F716292B-E0E2-4BBC-ADC8-03B050263D7F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFSystem" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DASHBOARD!$B$3:$J$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HFSystem!$B$3:$J$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">HFSystem!$B$3:$J$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +33,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="121">
   <si>
     <t>BACKLOG</t>
   </si>
@@ -400,6 +402,9 @@
   </si>
   <si>
     <t>INTEGRAÇÃO DO ARDUINO COM O BANCO DE DADOS</t>
+  </si>
+  <si>
+    <t>Integração da API de clima</t>
   </si>
 </sst>
 </file>
@@ -695,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -769,15 +774,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -839,6 +835,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3398,10 +3397,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="B1:U46"/>
+  <dimension ref="B1:U76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="113" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="48" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3431,31 +3430,31 @@
   <sheetData>
     <row r="1" spans="2:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="39"/>
-      <c r="R2" s="34" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="36"/>
+      <c r="R2" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="36"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="33"/>
     </row>
     <row r="3" spans="2:21" ht="18" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
@@ -4540,7 +4539,7 @@
         <v>119</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>52</v>
@@ -4556,7 +4555,7 @@
         <v>57</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>101</v>
@@ -4571,7 +4570,7 @@
         <v>117</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>53</v>
@@ -4587,7 +4586,7 @@
         <v>57</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>101</v>
@@ -4602,7 +4601,7 @@
         <v>118</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>53</v>
@@ -4618,7 +4617,7 @@
         <v>57</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>101</v>
@@ -4633,7 +4632,7 @@
         <v>117</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>54</v>
@@ -4664,7 +4663,7 @@
         <v>114</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>54</v>
@@ -4680,7 +4679,7 @@
         <v>57</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>101</v>
@@ -4688,14 +4687,14 @@
       <c r="K38" s="10"/>
     </row>
     <row r="39" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="46" t="s">
         <v>76</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>115</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>52</v>
@@ -4719,14 +4718,14 @@
       <c r="K39" s="10"/>
     </row>
     <row r="40" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="46" t="s">
         <v>77</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>114</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>53</v>
@@ -4750,14 +4749,14 @@
       <c r="K40" s="10"/>
     </row>
     <row r="41" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="46" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>114</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>52</v>
@@ -4773,7 +4772,7 @@
         <v>57</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>101</v>
@@ -4781,14 +4780,14 @@
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="46" t="s">
         <v>79</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>114</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>52</v>
@@ -4804,7 +4803,7 @@
         <v>57</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>101</v>
@@ -4812,14 +4811,14 @@
       <c r="K42" s="10"/>
     </row>
     <row r="43" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="46" t="s">
         <v>80</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>116</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>54</v>
@@ -4843,14 +4842,14 @@
       <c r="K43" s="10"/>
     </row>
     <row r="44" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="46" t="s">
         <v>81</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>112</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>54</v>
@@ -4874,14 +4873,14 @@
       <c r="K44" s="10"/>
     </row>
     <row r="45" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="46" t="s">
         <v>82</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>113</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>54</v>
@@ -4897,7 +4896,7 @@
         <v>57</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>101</v>
@@ -4905,14 +4904,14 @@
       <c r="K45" s="10"/>
     </row>
     <row r="46" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="46" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>114</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>54</v>
@@ -4935,10 +4934,45 @@
       </c>
       <c r="K46" s="10"/>
     </row>
+    <row r="47" spans="2:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="B47" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="6">
+        <v>8</v>
+      </c>
+      <c r="G47" s="4">
+        <v>3</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="16"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="16"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B3:J46" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="B3:J47" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
-      <filters>
+      <filters blank="1">
         <filter val="SP3"/>
       </filters>
     </filterColumn>
@@ -4953,7 +4987,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E46" xr:uid="{367C11EB-FC9E-42D9-AD1B-E8D3575B0C70}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H46" xr:uid="{60436FE9-F290-49A5-AF78-C5478B063B7C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H47" xr:uid="{60436FE9-F290-49A5-AF78-C5478B063B7C}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -5006,7 +5040,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J4:J46</xm:sqref>
+          <xm:sqref>J4:J47</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5016,7 +5050,7 @@
           <x14:formula1>
             <xm:f>'Banco de dados'!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J46</xm:sqref>
+          <xm:sqref>J4:J47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CCB23AFF-6DEB-4467-B2E8-5C3C9F00F886}">
           <x14:formula1>
@@ -5034,8 +5068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81505AEF-48CF-4C84-B9D1-8C183E32BEB6}">
   <dimension ref="B1:Y46"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="89" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView showGridLines="0" zoomScale="57" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5062,7 +5096,7 @@
     <col min="21" max="21" width="1.6640625" style="9" customWidth="1"/>
     <col min="22" max="22" width="13" style="9" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="17.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.109375" style="9" customWidth="1"/>
     <col min="25" max="25" width="16.6640625" style="9" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="13.33203125" style="9" customWidth="1"/>
     <col min="27" max="16384" width="9.109375" style="9"/>
@@ -5070,35 +5104,35 @@
   <sheetData>
     <row r="1" spans="2:25" ht="7.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="45"/>
-      <c r="V2" s="46" t="s">
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="42"/>
+      <c r="V2" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="48"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="45"/>
     </row>
     <row r="3" spans="2:25" ht="19.2" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
@@ -5130,24 +5164,18 @@
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="17"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
       <c r="P3" s="18"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
       <c r="T3" s="18"/>
-      <c r="V3" s="28" t="s">
+      <c r="V3" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="W3" s="28" t="s">
+      <c r="W3" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y3" s="28" t="s">
+      <c r="X3" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y3" s="25" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5182,26 +5210,20 @@
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="17"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
       <c r="P4" s="18"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
       <c r="T4" s="18"/>
-      <c r="V4" s="29" t="s">
+      <c r="V4" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="W4" s="29">
+      <c r="W4" s="26">
         <f>W5+W6+W7</f>
         <v>449</v>
       </c>
-      <c r="X4" s="29">
+      <c r="X4" s="26">
         <f>SUM(X5:X7)</f>
         <v>449</v>
       </c>
-      <c r="Y4" s="29">
+      <c r="Y4" s="26">
         <f>SUM(Y5:Y8)</f>
         <v>184</v>
       </c>
@@ -5236,26 +5258,23 @@
         <v>103</v>
       </c>
       <c r="L5" s="17"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
       <c r="P5" s="18"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
       <c r="T5" s="20"/>
-      <c r="V5" s="29" t="s">
+      <c r="V5" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="W5" s="29">
+      <c r="W5" s="26">
         <f>149</f>
         <v>149</v>
       </c>
-      <c r="X5" s="30">
+      <c r="X5" s="27">
         <f>SUM(F4:F18)</f>
         <v>118</v>
       </c>
-      <c r="Y5" s="29">
+      <c r="Y5" s="26">
         <v>118</v>
       </c>
     </row>
@@ -5289,26 +5308,23 @@
         <v>103</v>
       </c>
       <c r="L6" s="19"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
       <c r="P6" s="20"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="25"/>
       <c r="T6" s="18"/>
-      <c r="V6" s="29" t="s">
+      <c r="V6" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="W6" s="29">
+      <c r="W6" s="26">
         <f>150</f>
         <v>150</v>
       </c>
-      <c r="X6" s="30">
+      <c r="X6" s="27">
         <f>SUM(F19:F33)</f>
         <v>134</v>
       </c>
-      <c r="Y6" s="29">
+      <c r="Y6" s="26">
         <v>66</v>
       </c>
     </row>
@@ -5342,25 +5358,19 @@
         <v>103</v>
       </c>
       <c r="L7" s="17"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
       <c r="P7" s="18"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
       <c r="T7" s="18"/>
-      <c r="V7" s="29" t="s">
+      <c r="V7" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="W7" s="29">
+      <c r="W7" s="26">
         <v>150</v>
       </c>
-      <c r="X7" s="30">
+      <c r="X7" s="27">
         <f>SUM(F34:F46)</f>
         <v>197</v>
       </c>
-      <c r="Y7" s="29">
+      <c r="Y7" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5394,24 +5404,18 @@
         <v>103</v>
       </c>
       <c r="L8" s="17"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
       <c r="P8" s="18"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
       <c r="T8" s="18"/>
-      <c r="V8" s="29" t="s">
+      <c r="V8" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="W8" s="29">
+      <c r="W8" s="26">
         <v>0</v>
       </c>
-      <c r="X8" s="29">
+      <c r="X8" s="26">
         <v>0</v>
       </c>
-      <c r="Y8" s="29">
+      <c r="Y8" s="26">
         <v>0</v>
       </c>
     </row>
@@ -5446,13 +5450,7 @@
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="17"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
       <c r="P9" s="18"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
       <c r="T9" s="18"/>
     </row>
     <row r="10" spans="2:25" ht="18" x14ac:dyDescent="0.45">
@@ -5486,13 +5484,7 @@
       </c>
       <c r="K10" s="10"/>
       <c r="L10" s="17"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
       <c r="P10" s="18"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
       <c r="T10" s="18"/>
     </row>
     <row r="11" spans="2:25" ht="18" x14ac:dyDescent="0.45">
@@ -5526,13 +5518,7 @@
       </c>
       <c r="K11" s="10"/>
       <c r="L11" s="17"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
       <c r="P11" s="18"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
       <c r="T11" s="18"/>
     </row>
     <row r="12" spans="2:25" ht="18" x14ac:dyDescent="0.45">
@@ -5566,13 +5552,7 @@
       </c>
       <c r="K12" s="10"/>
       <c r="L12" s="17"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
       <c r="P12" s="18"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
       <c r="T12" s="18"/>
     </row>
     <row r="13" spans="2:25" ht="18" x14ac:dyDescent="0.45">
@@ -5606,13 +5586,7 @@
       </c>
       <c r="K13" s="10"/>
       <c r="L13" s="17"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
       <c r="P13" s="18"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
       <c r="T13" s="18"/>
     </row>
     <row r="14" spans="2:25" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.45">
@@ -5646,13 +5620,10 @@
       </c>
       <c r="K14" s="10"/>
       <c r="L14" s="17"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="18"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
       <c r="T14" s="20"/>
     </row>
     <row r="15" spans="2:25" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -5690,9 +5661,6 @@
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="23"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
       <c r="T15" s="18"/>
     </row>
     <row r="16" spans="2:25" ht="18" x14ac:dyDescent="0.45">
@@ -5726,13 +5694,7 @@
       </c>
       <c r="K16" s="10"/>
       <c r="L16" s="17"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
+      <c r="Q16" s="16"/>
       <c r="T16" s="18"/>
     </row>
     <row r="17" spans="2:20" ht="18" x14ac:dyDescent="0.45">
@@ -5766,13 +5728,6 @@
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="17"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
       <c r="T17" s="18"/>
     </row>
     <row r="18" spans="2:20" ht="18" x14ac:dyDescent="0.45">
@@ -5806,13 +5761,6 @@
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="17"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
       <c r="T18" s="18"/>
     </row>
     <row r="19" spans="2:20" ht="18" x14ac:dyDescent="0.45">
@@ -5846,13 +5794,6 @@
       </c>
       <c r="K19" s="10"/>
       <c r="L19" s="17"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
       <c r="T19" s="18"/>
     </row>
     <row r="20" spans="2:20" ht="18" x14ac:dyDescent="0.45">
@@ -5886,13 +5827,6 @@
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="17"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
       <c r="T20" s="18"/>
     </row>
     <row r="21" spans="2:20" ht="18" x14ac:dyDescent="0.45">
@@ -5926,13 +5860,6 @@
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="17"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
       <c r="T21" s="18"/>
     </row>
     <row r="22" spans="2:20" ht="18" x14ac:dyDescent="0.45">
@@ -5966,13 +5893,6 @@
       </c>
       <c r="K22" s="10"/>
       <c r="L22" s="17"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
       <c r="T22" s="18"/>
     </row>
     <row r="23" spans="2:20" ht="18" x14ac:dyDescent="0.45">
@@ -6006,13 +5926,6 @@
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="17"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
       <c r="T23" s="18"/>
     </row>
     <row r="24" spans="2:20" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">

--- a/Documentacao/Sprint 3/Backlog/HFSystem_Backlog.xlsx
+++ b/Documentacao/Sprint 3/Backlog/HFSystem_Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e27a146a09249998/Área de Trabalho/HFSystem/Documentacao/Sprint 3/Backlog/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinic\1 - Documentos\2 - Acessos\Desktop\Projetos\Projetos em grupo\HFSystem\Documentacao\Sprint 3\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{81EE869E-8AC5-4976-9CDC-784C0E5D2F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F716292B-E0E2-4BBC-ADC8-03B050263D7F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4877CDA-4D07-4A38-9B37-6285C5CC872F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFSystem" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="122">
   <si>
     <t>BACKLOG</t>
   </si>
@@ -405,6 +405,9 @@
   </si>
   <si>
     <t>Integração da API de clima</t>
+  </si>
+  <si>
+    <t>EMBED</t>
   </si>
 </sst>
 </file>
@@ -700,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -835,9 +838,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3399,8 +3399,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B1:U76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="48" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4687,7 +4687,7 @@
       <c r="K38" s="10"/>
     </row>
     <row r="39" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="11" t="s">
         <v>76</v>
       </c>
       <c r="C39" s="11" t="s">
@@ -4718,7 +4718,7 @@
       <c r="K39" s="10"/>
     </row>
     <row r="40" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="11" t="s">
         <v>77</v>
       </c>
       <c r="C40" s="11" t="s">
@@ -4749,7 +4749,7 @@
       <c r="K40" s="10"/>
     </row>
     <row r="41" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="11" t="s">
@@ -4780,7 +4780,7 @@
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C42" s="11" t="s">
@@ -4811,7 +4811,7 @@
       <c r="K42" s="10"/>
     </row>
     <row r="43" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -4842,7 +4842,7 @@
       <c r="K43" s="10"/>
     </row>
     <row r="44" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C44" s="11" t="s">
@@ -4873,7 +4873,7 @@
       <c r="K44" s="10"/>
     </row>
     <row r="45" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C45" s="11" t="s">
@@ -4904,7 +4904,7 @@
       <c r="K45" s="10"/>
     </row>
     <row r="46" spans="2:11" ht="18" x14ac:dyDescent="0.45">
-      <c r="B46" s="46" t="s">
+      <c r="B46" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C46" s="11" t="s">
@@ -4935,7 +4935,7 @@
       <c r="K46" s="10"/>
     </row>
     <row r="47" spans="2:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="B47" s="46" t="s">
+      <c r="B47" s="11" t="s">
         <v>120</v>
       </c>
       <c r="C47" s="11" t="s">
@@ -4963,7 +4963,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" s="16"/>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">

--- a/Documentacao/Sprint 3/Backlog/HFSystem_Backlog.xlsx
+++ b/Documentacao/Sprint 3/Backlog/HFSystem_Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinic\1 - Documentos\2 - Acessos\Desktop\Projetos\Projetos em grupo\HFSystem\Documentacao\Sprint 3\Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ana Barrocal\OneDrive - SPTech School\Trabalhos SPTECH\PI\HFSystem\Documentacao\Sprint 3\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4877CDA-4D07-4A38-9B37-6285C5CC872F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C995DEA2-EE4A-4F18-8539-974302C843AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HFSystem" sheetId="1" r:id="rId1"/>
@@ -3399,8 +3399,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B1:U76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4713,7 +4713,7 @@
         <v>91</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K39" s="10"/>
     </row>
@@ -4837,7 +4837,7 @@
         <v>92</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K43" s="10"/>
     </row>
